--- a/hardware/pcbs/teensy_shield_v0p2/gerber_v0p2_r1/fab_files/BOM_JLCPCB.xlsx
+++ b/hardware/pcbs/teensy_shield_v0p2/gerber_v0p2_r1/fab_files/BOM_JLCPCB.xlsx
@@ -167,7 +167,7 @@
     <t xml:space="preserve">12k Resistor,  1%</t>
   </si>
   <si>
-    <t xml:space="preserve">R1,R2,R26,R28,R34,R36</t>
+    <t xml:space="preserve">R1,R2,R26,R28,R34,R36,R33</t>
   </si>
   <si>
     <t xml:space="preserve">C22790 </t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">20k Resistor, 1%</t>
   </si>
   <si>
-    <t xml:space="preserve">R3,R5,R6,R8,R10,R13,R23,R25,R29,R33</t>
+    <t xml:space="preserve">R3,R5,R6,R8,R10,R13,R23,R25,R29</t>
   </si>
   <si>
     <t xml:space="preserve">C4184 </t>
@@ -554,7 +554,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/hardware/pcbs/teensy_shield_v0p2/gerber_v0p2_r1/fab_files/BOM_JLCPCB.xlsx
+++ b/hardware/pcbs/teensy_shield_v0p2/gerber_v0p2_r1/fab_files/BOM_JLCPCB.xlsx
@@ -554,7 +554,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -751,7 +751,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,7 +768,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
